--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N2">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O2">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P2">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q2">
-        <v>78.64209668659997</v>
+        <v>25.7291499372</v>
       </c>
       <c r="R2">
-        <v>707.7788701793999</v>
+        <v>231.5623494348</v>
       </c>
       <c r="S2">
-        <v>0.3432967390848762</v>
+        <v>0.1722507171045196</v>
       </c>
       <c r="T2">
-        <v>0.3432967390848763</v>
+        <v>0.1722507171045196</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P3">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q3">
         <v>63.90366417539999</v>
@@ -632,10 +632,10 @@
         <v>575.1329775785999</v>
       </c>
       <c r="S3">
-        <v>0.2789589857251085</v>
+        <v>0.4278202741515426</v>
       </c>
       <c r="T3">
-        <v>0.2789589857251085</v>
+        <v>0.4278202741515426</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q4">
         <v>9.5235354862</v>
@@ -694,10 +694,10 @@
         <v>85.7118193758</v>
       </c>
       <c r="S4">
-        <v>0.04157313722192052</v>
+        <v>0.06375787077584312</v>
       </c>
       <c r="T4">
-        <v>0.04157313722192052</v>
+        <v>0.06375787077584312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N5">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O5">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P5">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q5">
-        <v>39.82532945977965</v>
+        <v>13.029559436246</v>
       </c>
       <c r="R5">
-        <v>358.4279651380169</v>
+        <v>117.266034926214</v>
       </c>
       <c r="S5">
-        <v>0.173849710429361</v>
+        <v>0.08722989146269393</v>
       </c>
       <c r="T5">
-        <v>0.173849710429361</v>
+        <v>0.08722989146269391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P6">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q6">
         <v>32.361605128797</v>
@@ -818,10 +818,10 @@
         <v>291.254446159173</v>
       </c>
       <c r="S6">
-        <v>0.1412682771740166</v>
+        <v>0.2166534729555551</v>
       </c>
       <c r="T6">
-        <v>0.1412682771740166</v>
+        <v>0.2166534729555551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q7">
         <v>4.822836042524334</v>
@@ -880,10 +880,10 @@
         <v>43.405524382719</v>
       </c>
       <c r="S7">
-        <v>0.02105315036471715</v>
+        <v>0.03228777354984569</v>
       </c>
       <c r="T7">
-        <v>0.02105315036471715</v>
+        <v>0.03228777354984568</v>
       </c>
     </row>
   </sheetData>
